--- a/Resultados/Resustudas Resistor de descarga.xlsx
+++ b/Resultados/Resustudas Resistor de descarga.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacitor Alta Frequência" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resistores de descarga" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de resitores em paralelo</t>
+          <t>Resistor usado</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resistor usado</t>
+          <t>Restência total</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Restência total</t>
+          <t>Max WATTS com 110% Vn</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Max WATTS com 110% Vn</t>
+          <t>110% da Resistência total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>110% da Resistência total</t>
+          <t>90% da Resistência total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>90% da Resistência total</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Resistor máximo permitido</t>
         </is>
@@ -480,28 +475,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>8.5</v>
+        <v>5.76</v>
       </c>
       <c r="E2" t="n">
-        <v>5.1</v>
+        <v>14.01088011695907</v>
       </c>
       <c r="F2" t="n">
-        <v>12.94662538699691</v>
+        <v>6.336</v>
       </c>
       <c r="G2" t="n">
-        <v>5.61</v>
+        <v>5.184</v>
       </c>
       <c r="H2" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.251477308164517</v>
+        <v>6.299725638800916</v>
       </c>
     </row>
     <row r="3">
@@ -509,28 +501,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0.55</v>
       </c>
       <c r="D3" t="n">
-        <v>5.08</v>
+        <v>3.850000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>5.08</v>
+        <v>20.96173233082706</v>
       </c>
       <c r="F3" t="n">
-        <v>12.99759635308745</v>
+        <v>4.235000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>5.588000000000001</v>
+        <v>3.465</v>
       </c>
       <c r="H3" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.251477308164517</v>
+        <v>6.299725638800916</v>
       </c>
     </row>
     <row r="4">
@@ -538,202 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0.23</v>
       </c>
       <c r="D4" t="n">
-        <v>3.75</v>
+        <v>2.53</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>31.89828832951946</v>
       </c>
       <c r="F4" t="n">
-        <v>13.20555789473685</v>
+        <v>2.783</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>2.277</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.69765182186235</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.720000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.680000000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13.25859226379202</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.478</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.481999999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.745</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17.63091841753918</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.1195</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3705</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13.75578947368421</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17.15007518796993</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.235000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.465000000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.251477308164517</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>28.70773455377575</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.530000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.251477308164517</v>
+        <v>6.299725638800916</v>
       </c>
     </row>
   </sheetData>
